--- a/stripped/S61001.mes.bin.xlsx
+++ b/stripped/S61001.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BBCC3C-AED5-4D48-A967-79DB030F332E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AD4835-0FEE-42D4-8B31-70BC36260551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S61001.mes.bin" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>47</t>
   </si>
   <si>
-    <t>^... Would devote this much space to label the size of Ogata-san-san's\nproduction company...^</t>
+    <t>^... Would devote this much space to label the size of Ogata-san's\nproduction company...^</t>
   </si>
   <si>
     <t>49</t>

--- a/stripped/S61001.mes.bin.xlsx
+++ b/stripped/S61001.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AD4835-0FEE-42D4-8B31-70BC36260551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E05231-FA20-44B8-9F68-683E54EA9C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S61001.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>Status</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>61</t>
+  </si>
+  <si>
+    <t>^Eh...?^</t>
   </si>
   <si>
     <t>63</t>
@@ -643,7 +646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1151,7 +1156,9 @@
         <v>8</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1160,7 +1167,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1174,7 +1181,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -1190,7 +1197,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
@@ -1206,7 +1213,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1220,7 +1227,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
@@ -1236,7 +1243,7 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
@@ -1252,7 +1259,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
@@ -1268,7 +1275,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1282,7 +1289,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
@@ -1290,7 +1297,7 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -1300,7 +1307,7 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -1316,7 +1323,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1330,7 +1337,7 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -1346,7 +1353,7 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
@@ -1362,7 +1369,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1376,7 +1383,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1390,7 +1397,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1404,7 +1411,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1418,7 +1425,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1432,13 +1439,13 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -1448,13 +1455,13 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -1464,7 +1471,7 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1478,7 +1485,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1492,7 +1499,7 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1506,7 +1513,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1520,7 +1527,7 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1534,7 +1541,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1548,7 +1555,7 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
